--- a/biology/Médecine/Ivar_Asbjørn_Følling/Ivar_Asbjørn_Følling.xlsx
+++ b/biology/Médecine/Ivar_Asbjørn_Følling/Ivar_Asbjørn_Følling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ivar_Asbj%C3%B8rn_F%C3%B8lling</t>
+          <t>Ivar_Asbjørn_Følling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asbjorn Folling est un médecin et biochimiste norvégien né en 1888, mort en 1973.  Il a décrit la maladie qui porte son nom (plus connue maintenant sous le nom de PCU ou phénylcétonurie). En 1934, Asbjorn Fölling a rapporté qu'il avait découvert la cause de retard mental chez deux enfants. La maladie, phénylcétonurie, est encore appelée la maladie de Fölling en Norvège. 
 Asbjorn Fölling fut médecin à Oslo, puis s'est spécialisé dans les applications de la chimie à la médecine. Une réaction au phénylpyruvate en excès et au chlorure ferrique a provoqué un changement de couleur aux échantillons de l'urine acidifiée des enfants Egeland. Fölling a testé ensuite de nombreux enfants présentant un retard mental et a trouvé que huit d'eux avaient aussi une phénylcétonurie. La découverte a été publiée en norvégien et en allemand dans les six mois suivant les expériences originales. Il a aussi permis d'améliorer les régimes alimentaires de ces enfants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ivar_Asbj%C3%B8rn_F%C3%B8lling</t>
+          <t>Ivar_Asbjørn_Følling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressource relative à la recherche : Who Named It?  
 Notices dans des dictionnaires ou encyclopédies généralistes : Norsk biografisk leksikon Store norske leksikon 
 Notices d'autorité : VIAF LCCN GND Norvège WorldCat 
-Biotop [1]
+Biotop 
  Portail de la médecine   Portail de la Norvège                    </t>
         </is>
       </c>
